--- a/DATA_goal/Junction_Flooding_263.xlsx
+++ b/DATA_goal/Junction_Flooding_263.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41695.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.56</v>
+        <v>2.06</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.95</v>
+        <v>1.4</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>43.51</v>
+        <v>4.35</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>35.45</v>
+        <v>3.54</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.18</v>
+        <v>1.62</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>52.24</v>
+        <v>5.22</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>24.9</v>
+        <v>2.49</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.99</v>
+        <v>1.6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.94</v>
+        <v>1.79</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.09</v>
+        <v>1.61</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>22.53</v>
+        <v>2.25</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.63</v>
+        <v>1.36</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.71</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.45</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>237.58</v>
+        <v>23.76</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>44.77</v>
+        <v>4.48</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.85</v>
+        <v>1.49</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>29.51</v>
+        <v>2.95</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.22</v>
+        <v>1.52</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.88</v>
+        <v>2.59</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.64</v>
+        <v>1.76</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>46.28</v>
+        <v>4.63</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41695.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22.29</v>
+        <v>2.23</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.04</v>
+        <v>1.6</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH3" s="4" t="n">
         <v>2.01</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>17.54</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>67.22</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>26.99</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>17.61</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>20.22</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>14.83</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>258.22</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>32.55</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>17.11</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>32.58</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>14.22</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>14.96</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>20.02</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>61.04</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>20.13</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41695.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.64</v>
+        <v>2.36</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.3</v>
+        <v>1.73</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" s="4" t="n">
         <v>1.56</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>42.05</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>28.62</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>18.82</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>21.62</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>26.28</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>15.63</v>
-      </c>
       <c r="R4" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>274.24</v>
+        <v>27.42</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>51.74</v>
+        <v>5.17</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>34.69</v>
+        <v>3.47</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.25</v>
+        <v>1.83</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>35</v>
+        <v>3.5</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.08</v>
+        <v>1.51</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.43</v>
+        <v>1.34</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.77</v>
+        <v>1.58</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.46</v>
+        <v>2.15</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>65.76000000000001</v>
+        <v>6.58</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.35</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41695.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>27.66</v>
+        <v>2.77</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.62</v>
+        <v>2.26</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.3</v>
+        <v>4.23</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.47</v>
+        <v>1.55</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.19</v>
+        <v>1.42</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>144.91</v>
+        <v>14.49</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.07</v>
+        <v>2.81</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.73</v>
+        <v>1.87</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.85</v>
+        <v>0.99</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.93</v>
+        <v>1.99</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.15</v>
+        <v>0.82</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>38.47</v>
+        <v>3.85</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41695.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>5.96</v>
+        <v>0.6</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>4.2</v>
+        <v>0.42</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>12.86</v>
+        <v>1.29</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>21.7</v>
+        <v>2.17</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>4.57</v>
+        <v>0.46</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>5.4</v>
+        <v>0.54</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AB6" s="4" t="n">
         <v>0.35</v>
       </c>
-      <c r="T6" s="4" t="n">
-        <v>63.65</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.46</v>
-      </c>
       <c r="AC6" s="4" t="n">
-        <v>4.05</v>
+        <v>0.4</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>5.37</v>
+        <v>0.54</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>19.85</v>
+        <v>1.98</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41695.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.27</v>
+        <v>1.33</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>39.01</v>
+        <v>3.9</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>32.06</v>
+        <v>3.21</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>51.81</v>
+        <v>5.18</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>21.76</v>
+        <v>2.18</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>16.51</v>
+        <v>1.65</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>206.69</v>
+        <v>20.67</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>39.23</v>
+        <v>3.92</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>26.38</v>
+        <v>2.64</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>13.9</v>
+        <v>1.39</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.05</v>
+        <v>0.2</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>25.5</v>
+        <v>2.55</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>16.42</v>
+        <v>1.64</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>46.8</v>
+        <v>4.68</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>16.23</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="8">
@@ -1279,13 +1279,13 @@
         <v>41695.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="K8" s="4" t="n">
         <v>0</v>
@@ -1318,13 +1318,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="R8" s="4" t="n">
         <v>0</v>
@@ -1336,46 +1336,46 @@
         <v>0</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AE8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>8.93</v>
+        <v>0.89</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41695.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6.06</v>
+        <v>0.61</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>17.46</v>
+        <v>1.75</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>14.87</v>
+        <v>1.49</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>7.15</v>
+        <v>0.71</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>21.96</v>
+        <v>2.2</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>6.56</v>
+        <v>0.66</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>7.12</v>
+        <v>0.71</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>90.48999999999999</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>17.66</v>
+        <v>1.77</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>6.23</v>
+        <v>0.62</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>10.64</v>
+        <v>1.06</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>4.62</v>
+        <v>0.46</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>7.4</v>
+        <v>0.74</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>19.63</v>
+        <v>1.96</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41695.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>32.36</v>
+        <v>3.24</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>27.17</v>
+        <v>2.72</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>12.27</v>
+        <v>1.23</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>43.01</v>
+        <v>4.3</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>18.15</v>
+        <v>1.81</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>13.11</v>
+        <v>1.31</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>16.7</v>
+        <v>1.67</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.73</v>
+        <v>0.97</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>171.52</v>
+        <v>17.15</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>32.74</v>
+        <v>3.27</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>10.83</v>
+        <v>1.08</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>22.05</v>
+        <v>2.2</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>21.31</v>
+        <v>2.13</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.56</v>
+        <v>0.96</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.44</v>
+        <v>0.84</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>9.92</v>
+        <v>0.99</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>13.68</v>
+        <v>1.37</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>39.01</v>
+        <v>3.9</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.12</v>
+        <v>0.61</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_263.xlsx
+++ b/DATA_goal/Junction_Flooding_263.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41695.34027777778</v>
+        <v>44944.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.06</v>
+        <v>1.59</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M2" s="4" t="n">
         <v>1.4</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L2" s="4" t="n">
+      <c r="N2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P2" s="4" t="n">
         <v>1.72</v>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>2.25</v>
-      </c>
       <c r="Q2" s="4" t="n">
-        <v>1.36</v>
+        <v>1.09</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>23.76</v>
+        <v>18.15</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.48</v>
+        <v>3.44</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.49</v>
+        <v>1.15</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.95</v>
+        <v>2.23</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.52</v>
+        <v>1.13</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.19</v>
+        <v>0.91</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.39</v>
+        <v>1.09</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.76</v>
+        <v>1.4</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.63</v>
+        <v>3.39</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.83</v>
+        <v>0.61</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41695.34722222222</v>
+        <v>44944.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.23</v>
+        <v>0.09</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.6</v>
+        <v>0.03</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.81</v>
+        <v>0.19</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.94</v>
+        <v>0.06</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.72</v>
+        <v>0.89</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.7</v>
+        <v>0.12</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.18</v>
+        <v>0.03</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.76</v>
+        <v>0.02</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.93</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.74</v>
+        <v>0.08</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.47</v>
+        <v>0.1</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.48</v>
+        <v>0.11</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>25.82</v>
+        <v>0.43</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.88</v>
+        <v>0.27</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.61</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.26</v>
+        <v>0.15</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.71</v>
+        <v>0.05</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.08</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.26</v>
+        <v>0.4</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.42</v>
+        <v>0.06</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.28</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.5</v>
+        <v>0.09</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2</v>
+        <v>0.08</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.1</v>
+        <v>0.91</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.01</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41695.35416666666</v>
+        <v>44944.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.36</v>
+        <v>0.18</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.73</v>
+        <v>0.11</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L4" s="4" t="n">
         <v>0.16</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>2.06</v>
-      </c>
       <c r="M4" s="4" t="n">
-        <v>2.16</v>
+        <v>0.17</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.05</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.85</v>
+        <v>0.15</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.63</v>
+        <v>0.19</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.42</v>
+        <v>1.55</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.17</v>
+        <v>0.42</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.71</v>
+        <v>0.14</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.47</v>
+        <v>0.24</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.83</v>
+        <v>0.12</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.51</v>
+        <v>0.12</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.34</v>
+        <v>0.12</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.58</v>
+        <v>0.14</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.15</v>
+        <v>0.17</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.58</v>
+        <v>0.64</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.06</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.13</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41695.36111111111</v>
+        <v>44944.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.86</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.63</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.77</v>
+        <v>1.88</v>
       </c>
       <c r="F5" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H5" s="4" t="n">
         <v>2.26</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>4.23</v>
-      </c>
       <c r="I5" s="4" t="n">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O5" s="4" t="n">
         <v>0.68</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P5" s="4" t="n">
-        <v>1.42</v>
+        <v>0.95</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.49</v>
+        <v>9.56</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.81</v>
+        <v>1.87</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.99</v>
+        <v>0.65</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.99</v>
+        <v>1.12</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.5</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.58</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.16</v>
+        <v>0.79</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.85</v>
+        <v>2.02</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.15</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41695.36805555555</v>
+        <v>44944.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.6</v>
+        <v>23.47</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.42</v>
+        <v>17.51</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>1.22</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.29</v>
+        <v>51.18</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.04</v>
+        <v>41.85</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.47</v>
+        <v>18.47</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.17</v>
+        <v>67.91</v>
       </c>
       <c r="I6" s="4" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>26.23</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.72</v>
       </c>
-      <c r="J6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.88</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>6.37</v>
+        <v>273.09</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.32</v>
+        <v>51.45</v>
       </c>
       <c r="V6" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>34.62</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="W6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF6" s="4" t="n">
-        <v>1.98</v>
+        <v>61.79</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.24</v>
+        <v>9.58</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41695.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>20.67</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41695.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41695.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41695.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41695.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>18.39</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>28.24</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>94.76000000000001</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>18.82</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>25.86</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>7.72</v>
+        <v>21.26</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_263.xlsx
+++ b/DATA_goal/Junction_Flooding_263.xlsx
@@ -450,7 +450,7 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
@@ -463,11 +463,11 @@
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>44944.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.85</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.38</v>
+        <v>33.76</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.61</v>
+        <v>26.1</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.38</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.78</v>
+        <v>37.78</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.2</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.83</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.63</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.33</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.95</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.72</v>
+        <v>17.16</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.86</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>18.15</v>
+        <v>181.47</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.44</v>
+        <v>34.41</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.23</v>
+        <v>22.3</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.35</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.4</v>
+        <v>14.04</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.39</v>
+        <v>33.91</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44944.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="H3" s="4" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AH3" s="4" t="n">
         <v>0.89</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44944.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.1</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.67</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.86</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.53</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.2</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.45</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44944.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.27</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.77</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.5</v>
+        <v>14.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.26</v>
+        <v>22.61</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.71</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.95</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.48</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.56</v>
+        <v>95.63</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.73</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.36</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.17</v>
       </c>
       <c r="AA5" s="4" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>2.02</v>
+        <v>20.24</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_263.xlsx
+++ b/DATA_goal/Junction_Flooding_263.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44944.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.85</v>
+        <v>15.854</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.49</v>
+        <v>10.494</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.735</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>33.76</v>
+        <v>33.762</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>26.1</v>
+        <v>26.097</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.38</v>
+        <v>12.381</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>37.78</v>
+        <v>37.784</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.2</v>
+        <v>19.197</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.83</v>
+        <v>7.826</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.63</v>
+        <v>11.635</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.33</v>
+        <v>13.329</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.95</v>
+        <v>13.955</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.98</v>
+        <v>3.981</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.41</v>
+        <v>12.407</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.16</v>
+        <v>17.155</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.86</v>
+        <v>10.858</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.133</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>2.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>181.47</v>
+        <v>181.475</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>34.41</v>
+        <v>34.412</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>22.3</v>
+        <v>22.298</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.28</v>
+        <v>11.285</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>19.35</v>
+        <v>19.349</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.12</v>
+        <v>10.115</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.106</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.92</v>
+        <v>10.918</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.04</v>
+        <v>14.036</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>3.313</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>33.91</v>
+        <v>33.905</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.11</v>
+        <v>6.108</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.32</v>
+        <v>14.317</v>
       </c>
     </row>
     <row r="3">
@@ -762,100 +762,100 @@
         <v>0.86</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.271</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.259</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.571</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.68</v>
+        <v>0.681</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>8.93</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.163</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.293</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.226</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.663</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.285</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>1.03</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.06</v>
+        <v>1.059</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.35</v>
+        <v>1.348</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.613</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.29</v>
+        <v>4.293</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.69</v>
+        <v>2.692</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.5</v>
+        <v>1.501</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.52</v>
+        <v>0.519</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>4.02</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.613</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.87</v>
+        <v>0.871</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>9.055</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.137</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="4">
@@ -863,52 +863,52 @@
         <v>44944.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.83</v>
+        <v>1.835</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.142</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.823</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.1</v>
+        <v>4.102</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.67</v>
+        <v>2.669</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.44</v>
+        <v>1.438</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.86</v>
+        <v>6.855</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.33</v>
+        <v>2.327</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.15</v>
+        <v>1.154</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.6</v>
+        <v>1.597</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.69</v>
+        <v>1.694</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.478</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.5</v>
+        <v>1.504</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.58</v>
+        <v>1.583</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.89</v>
@@ -917,49 +917,49 @@
         <v>0.4</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.53</v>
+        <v>15.526</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.2</v>
+        <v>4.196</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.39</v>
+        <v>1.388</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>2.4</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.21</v>
+        <v>1.214</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.658</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>3.01</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.23</v>
+        <v>1.226</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.21</v>
+        <v>1.212</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.45</v>
+        <v>1.447</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.71</v>
+        <v>1.705</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.43</v>
+        <v>6.435</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.606</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.73</v>
+        <v>1.733</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>7.81</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44944.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>23.47</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.51</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>51.18</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>41.85</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>67.91</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.52</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>21.73</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>26.23</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.48</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>273.09</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>51.45</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>34.62</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>15.02</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>61.79</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>21.26</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_263.xlsx
+++ b/DATA_goal/Junction_Flooding_263.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44944.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.57</v>
+        <v>8.571</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.27</v>
+        <v>6.273</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.838</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.77</v>
+        <v>18.768</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.95</v>
+        <v>14.953</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.74</v>
+        <v>6.739</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.61</v>
+        <v>22.605</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.47</v>
+        <v>10.471</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.45</v>
+        <v>4.449</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.71</v>
+        <v>6.706</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.5</v>
+        <v>7.503</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.95</v>
+        <v>7.953</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.17</v>
+        <v>2.169</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.77</v>
+        <v>6.767</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.48</v>
+        <v>9.477</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.88</v>
+        <v>5.876</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.725</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.494</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.63</v>
+        <v>95.631</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.73</v>
+        <v>18.734</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.25</v>
+        <v>6.247</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.36</v>
+        <v>12.365</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.52</v>
+        <v>6.518</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.23</v>
+        <v>1.229</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.17</v>
+        <v>11.173</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.52</v>
+        <v>5.517</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.96</v>
+        <v>4.956</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>5.84</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.9</v>
+        <v>7.904</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>20.24</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.42</v>
+        <v>3.418</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.81</v>
+        <v>7.809</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44944.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>51.18</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>41.85</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>67.91</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>26.23</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>273.09</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>51.45</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>34.62</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>61.79</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>21.26</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_263.xlsx
+++ b/DATA_goal/Junction_Flooding_263.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44944.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.571</v>
+        <v>8.57</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.273</v>
+        <v>6.27</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.838</v>
+        <v>0.84</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.768</v>
+        <v>18.77</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.953</v>
+        <v>14.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.739</v>
+        <v>6.74</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.605</v>
+        <v>22.61</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.471</v>
+        <v>10.47</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.449</v>
+        <v>4.45</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.706</v>
+        <v>6.71</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.503</v>
+        <v>7.5</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.953</v>
+        <v>7.95</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.169</v>
+        <v>2.17</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.767</v>
+        <v>6.77</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.477</v>
+        <v>9.48</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.876</v>
+        <v>5.88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.725</v>
+        <v>0.72</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.494</v>
+        <v>0.49</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.631</v>
+        <v>95.63</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.734</v>
+        <v>18.73</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.247</v>
+        <v>6.25</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.365</v>
+        <v>12.36</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.518</v>
+        <v>6.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.229</v>
+        <v>1.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.173</v>
+        <v>11.17</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.517</v>
+        <v>5.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.956</v>
+        <v>4.96</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>5.84</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.904</v>
+        <v>7.9</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>20.24</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.418</v>
+        <v>3.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.809</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44944.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>23.47</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.51</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>51.18</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>41.85</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>67.91</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.52</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>21.73</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>26.23</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.48</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>273.09</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>51.45</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>34.62</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>15.02</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>61.79</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>21.26</v>
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>
